--- a/galleryapp/gallery-web/gallery-web-form-applied.xlsx
+++ b/galleryapp/gallery-web/gallery-web-form-applied.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="228">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.example.web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ex10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -956,22 +952,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>##ATTR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,14 +961,6 @@
   </si>
   <si>
     <t>FORMATPATTERN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.FormatPattern</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.FormatPattern</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1153,7 +1125,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.foundation.spring.webmvc.SortParam</t>
+    <t>cherry.gallery.web</t>
+  </si>
+  <si>
+    <t>cherry.gallery.web.FormatPattern</t>
+  </si>
+  <si>
+    <t>galleryapp/gallery-web</t>
+  </si>
+  <si>
+    <t>cherry.fundamental.spring.webmvc.SortParam</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2103,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2153,19 +2134,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2173,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2182,18 +2163,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex10.AppliedEx10Form</v>
+        <v>cherry.gallery.web.applied.ex10.AppliedEx10Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2201,10 +2182,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -2239,12 +2220,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -2283,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -2345,7 +2326,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -2396,24 +2377,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2433,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -2446,7 +2427,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2466,28 +2447,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2505,26 +2486,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2542,26 +2523,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2579,13 +2560,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2610,13 +2591,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2641,13 +2622,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2672,13 +2653,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2703,20 +2684,20 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2770,19 +2751,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2790,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2799,18 +2780,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex40.AppliedEx41SubForm</v>
+        <v>cherry.gallery.web.applied.ex40.AppliedEx41SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2818,10 +2799,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -2856,12 +2837,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -2900,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -2962,7 +2943,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -3013,24 +2994,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3050,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -3063,7 +3044,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3083,28 +3064,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -3122,26 +3103,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -3159,26 +3140,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3196,13 +3177,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3227,13 +3208,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3258,13 +3239,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3289,13 +3270,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3352,19 +3333,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3372,7 +3353,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3381,18 +3362,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex50.AppliedEx50Form</v>
+        <v>cherry.gallery.web.applied.ex50.AppliedEx50Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3400,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -3438,12 +3419,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -3482,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -3544,7 +3525,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -3595,22 +3576,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3630,28 +3611,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -3669,28 +3650,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -3708,26 +3689,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -3745,26 +3726,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3782,26 +3763,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3819,26 +3800,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3856,13 +3837,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3887,13 +3868,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3918,13 +3899,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3949,13 +3930,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3980,13 +3961,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4011,13 +3992,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4042,13 +4023,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4073,13 +4054,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4104,20 +4085,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -4139,20 +4120,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -4174,13 +4155,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4205,13 +4186,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4268,19 +4249,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4288,7 +4269,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4297,18 +4278,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex50.AppliedEx51Form</v>
+        <v>cherry.gallery.web.applied.ex50.AppliedEx51Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4316,10 +4297,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -4354,12 +4335,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -4398,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -4460,7 +4441,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -4511,13 +4492,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4542,13 +4523,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4573,13 +4554,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4604,20 +4585,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
@@ -4671,19 +4652,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4691,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4700,18 +4681,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex50.AppliedEx51SubForm</v>
+        <v>cherry.gallery.web.applied.ex50.AppliedEx51SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4719,10 +4700,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -4757,12 +4738,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -4801,7 +4782,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -4863,7 +4844,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -4914,20 +4895,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11"/>
@@ -4949,24 +4930,24 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4986,10 +4967,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -4999,7 +4980,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -5019,28 +5000,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -5058,26 +5039,26 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -5095,26 +5076,26 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -5132,13 +5113,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5163,13 +5144,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5194,13 +5175,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5225,13 +5206,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5288,19 +5269,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5308,7 +5289,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5317,18 +5298,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex50.AppliedEx52Form</v>
+        <v>cherry.gallery.web.applied.ex50.AppliedEx52Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5336,10 +5317,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -5374,12 +5355,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -5418,7 +5399,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -5480,7 +5461,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -5531,13 +5512,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5562,13 +5543,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5593,13 +5574,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5656,19 +5637,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5676,7 +5657,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5685,18 +5666,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex60.AppliedEx60Form</v>
+        <v>cherry.gallery.web.applied.ex60.AppliedEx60Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5704,10 +5685,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -5742,12 +5723,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -5786,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -5848,7 +5829,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -5899,22 +5880,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -5934,28 +5915,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -5973,28 +5954,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -6012,26 +5993,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -6049,26 +6030,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6086,26 +6067,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -6123,26 +6104,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -6160,13 +6141,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6191,13 +6172,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6222,13 +6203,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6253,13 +6234,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6284,13 +6265,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6315,13 +6296,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6346,13 +6327,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -6377,13 +6358,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6408,20 +6389,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -6443,20 +6424,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -6478,13 +6459,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -6509,13 +6490,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -6572,19 +6553,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6592,7 +6573,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6601,18 +6582,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex60.AppliedEx61Form</v>
+        <v>cherry.gallery.web.applied.ex60.AppliedEx61Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6620,10 +6601,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -6658,12 +6639,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -6702,7 +6683,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -6764,7 +6745,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -6815,13 +6796,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6846,13 +6827,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6877,13 +6858,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6908,20 +6889,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
@@ -6975,19 +6956,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6995,7 +6976,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7004,18 +6985,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex60.AppliedEx61SubForm</v>
+        <v>cherry.gallery.web.applied.ex60.AppliedEx61SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7023,10 +7004,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -7061,12 +7042,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -7105,7 +7086,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -7167,7 +7148,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -7218,20 +7199,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11"/>
@@ -7253,24 +7234,24 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -7290,10 +7271,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -7303,7 +7284,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -7323,28 +7304,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -7362,26 +7343,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -7399,26 +7380,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -7436,13 +7417,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -7467,13 +7448,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7498,13 +7479,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7529,13 +7510,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7592,19 +7573,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7612,7 +7593,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7621,18 +7602,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex60.AppliedEx62Form</v>
+        <v>cherry.gallery.web.applied.ex60.AppliedEx62Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7640,10 +7621,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -7678,12 +7659,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -7722,7 +7703,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -7784,7 +7765,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -7835,13 +7816,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7866,13 +7847,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7897,13 +7878,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7960,19 +7941,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7980,7 +7961,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7989,18 +7970,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex90.AppliedEx90Form</v>
+        <v>cherry.gallery.web.applied.ex90.AppliedEx90Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8008,10 +7989,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -8046,12 +8027,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -8075,7 +8056,7 @@
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
@@ -8090,7 +8071,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -8137,13 +8118,13 @@
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="A10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
@@ -8152,49 +8133,49 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -8203,25 +8184,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -8238,10 +8219,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -8255,7 +8236,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -8271,20 +8252,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="11"/>
@@ -8292,7 +8273,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -8308,20 +8289,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
@@ -8329,7 +8310,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -8345,30 +8326,30 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -8384,13 +8365,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -8400,10 +8381,10 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -8419,13 +8400,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -8435,10 +8416,10 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -8454,13 +8435,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -8470,10 +8451,10 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -8521,19 +8502,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8541,7 +8522,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8550,18 +8531,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex10.AppliedEx10SubForm</v>
+        <v>cherry.gallery.web.applied.ex10.AppliedEx10SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8569,10 +8550,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -8607,12 +8588,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -8651,7 +8632,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -8713,7 +8694,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -8764,24 +8745,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -8801,10 +8782,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -8814,7 +8795,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -8834,28 +8815,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -8873,26 +8854,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -8910,26 +8891,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -8947,13 +8928,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -8978,13 +8959,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -9009,13 +8990,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -9040,13 +9021,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -9103,19 +9084,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -9123,7 +9104,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -9132,18 +9113,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex90.AppliedEx90LoadForm</v>
+        <v>cherry.gallery.web.applied.ex90.AppliedEx90LoadForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -9151,10 +9132,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -9189,12 +9170,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -9218,7 +9199,7 @@
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
@@ -9233,7 +9214,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -9280,13 +9261,13 @@
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="A10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
@@ -9295,49 +9276,49 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -9346,24 +9327,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -9383,10 +9364,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -9396,7 +9377,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -9416,28 +9397,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9455,26 +9436,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -9492,26 +9473,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -9561,19 +9542,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -9581,7 +9562,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -9590,18 +9571,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex20.AppliedEx20Form</v>
+        <v>cherry.gallery.web.applied.ex20.AppliedEx20Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -9609,10 +9590,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -9647,12 +9628,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -9691,7 +9672,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -9753,7 +9734,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -9804,24 +9785,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -9841,10 +9822,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -9854,7 +9835,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -9874,28 +9855,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9913,26 +9894,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -9950,26 +9931,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -9987,13 +9968,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10018,13 +9999,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10049,13 +10030,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -10080,13 +10061,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10111,20 +10092,20 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -10178,19 +10159,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -10198,7 +10179,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -10207,18 +10188,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex20.AppliedEx20SubForm</v>
+        <v>cherry.gallery.web.applied.ex20.AppliedEx20SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -10226,10 +10207,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -10264,12 +10245,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -10308,7 +10289,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -10370,7 +10351,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -10421,24 +10402,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -10458,10 +10439,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -10471,7 +10452,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -10491,28 +10472,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -10530,26 +10511,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -10567,26 +10548,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -10604,13 +10585,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10635,13 +10616,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10666,13 +10647,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -10697,13 +10678,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10760,19 +10741,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -10780,7 +10761,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -10789,18 +10770,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex30.AppliedEx30Form</v>
+        <v>cherry.gallery.web.applied.ex30.AppliedEx30Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -10808,10 +10789,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -10846,12 +10827,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -10890,7 +10871,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -10952,7 +10933,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -11003,22 +10984,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -11038,28 +11019,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -11077,28 +11058,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -11116,26 +11097,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -11153,26 +11134,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -11190,26 +11171,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -11227,26 +11208,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -11264,13 +11245,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -11295,13 +11276,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -11326,13 +11307,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -11357,13 +11338,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -11388,13 +11369,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -11419,13 +11400,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -11450,13 +11431,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -11481,13 +11462,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -11512,20 +11493,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -11547,20 +11528,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -11582,13 +11563,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -11613,13 +11594,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -11676,19 +11657,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -11696,7 +11677,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -11705,18 +11686,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex30.AppliedEx31Form</v>
+        <v>cherry.gallery.web.applied.ex30.AppliedEx31Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -11724,10 +11705,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -11762,12 +11743,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -11806,7 +11787,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -11868,7 +11849,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -11919,24 +11900,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -11956,10 +11937,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -11969,7 +11950,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -11989,28 +11970,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -12028,26 +12009,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -12065,26 +12046,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -12102,13 +12083,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -12133,13 +12114,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -12164,13 +12145,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -12195,13 +12176,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -12226,20 +12207,20 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -12293,19 +12274,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -12313,7 +12294,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -12322,18 +12303,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex30.AppliedEx31SubForm</v>
+        <v>cherry.gallery.web.applied.ex30.AppliedEx31SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -12341,10 +12322,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -12379,12 +12360,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -12423,7 +12404,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -12485,7 +12466,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -12536,24 +12517,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -12573,10 +12554,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -12586,7 +12567,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -12606,28 +12587,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -12645,26 +12626,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -12682,26 +12663,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -12719,13 +12700,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -12750,13 +12731,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -12781,13 +12762,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -12812,13 +12793,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -12875,19 +12856,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -12895,7 +12876,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -12904,18 +12885,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex40.AppliedEx40Form</v>
+        <v>cherry.gallery.web.applied.ex40.AppliedEx40Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -12923,10 +12904,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -12961,12 +12942,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -13005,7 +12986,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -13067,7 +13048,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -13118,22 +13099,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -13153,28 +13134,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -13192,28 +13173,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -13231,26 +13212,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -13268,26 +13249,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -13305,26 +13286,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -13342,26 +13323,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -13379,13 +13360,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -13410,13 +13391,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -13441,13 +13422,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -13472,13 +13453,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -13503,13 +13484,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -13534,13 +13515,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -13565,13 +13546,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -13596,13 +13577,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -13627,20 +13608,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -13662,20 +13643,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -13697,13 +13678,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -13728,13 +13709,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -13791,19 +13772,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -13811,7 +13792,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -13820,18 +13801,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.applied.ex40.AppliedEx41Form</v>
+        <v>cherry.gallery.web.applied.ex40.AppliedEx41Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -13839,10 +13820,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -13877,12 +13858,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -13921,7 +13902,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -13983,7 +13964,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -14034,24 +14015,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -14071,10 +14052,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -14084,7 +14065,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -14104,28 +14085,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -14143,26 +14124,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -14180,26 +14161,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -14217,13 +14198,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -14248,13 +14229,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -14279,13 +14260,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -14310,13 +14291,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -14341,17 +14322,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
